--- a/Students_information.xlsx
+++ b/Students_information.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tanima\Desktop\Automatic_Attendance_System\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{700CF53D-03F2-416A-9083-A9993C4A9A35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>Name</t>
   </si>
@@ -22,68 +28,71 @@
     <t>ID</t>
   </si>
   <si>
-    <t>Angelina Jolie</t>
-  </si>
-  <si>
-    <t>Brad Pitt</t>
-  </si>
-  <si>
-    <t>Denzel Washington</t>
-  </si>
-  <si>
     <t>Gobinda Sarker</t>
   </si>
   <si>
-    <t>Hugh Jackman</t>
-  </si>
-  <si>
-    <t>Jennifer Lawrence</t>
-  </si>
-  <si>
-    <t>Johnny Depp</t>
-  </si>
-  <si>
-    <t>Kate Winslet</t>
-  </si>
-  <si>
-    <t>Leonardo DiCaprio</t>
-  </si>
-  <si>
-    <t>Megan Fox</t>
-  </si>
-  <si>
-    <t>Natalie Portman</t>
-  </si>
-  <si>
-    <t>Nicole Kidman</t>
-  </si>
-  <si>
-    <t>Robert Downey Jr</t>
-  </si>
-  <si>
-    <t>Sandra Bullock</t>
-  </si>
-  <si>
-    <t>Scarlett Johansson</t>
-  </si>
-  <si>
-    <t>Tom Cruise</t>
-  </si>
-  <si>
-    <t>Tom Hanks</t>
-  </si>
-  <si>
-    <t>Will Smith</t>
-  </si>
-  <si>
-    <t>Anya Joya</t>
+    <t>Akash Paul</t>
+  </si>
+  <si>
+    <t>Jannat Saima</t>
+  </si>
+  <si>
+    <t>Mehek Dutta</t>
+  </si>
+  <si>
+    <t>Swarup Singh</t>
+  </si>
+  <si>
+    <t>Koyel Mollick</t>
+  </si>
+  <si>
+    <t>Ankita Mollick</t>
+  </si>
+  <si>
+    <t>Swoirik Saha</t>
+  </si>
+  <si>
+    <t>Abid Rony</t>
+  </si>
+  <si>
+    <t>Sumya Sharmin</t>
+  </si>
+  <si>
+    <t>Puja Cherry</t>
+  </si>
+  <si>
+    <t>Bidya Saha</t>
+  </si>
+  <si>
+    <t>Salman Khan</t>
+  </si>
+  <si>
+    <t>Tanima Sarker</t>
+  </si>
+  <si>
+    <t>Pial Rahman</t>
+  </si>
+  <si>
+    <t>Ovi Chowdhury</t>
+  </si>
+  <si>
+    <t>Tanny Basak</t>
+  </si>
+  <si>
+    <t>Efaz Rahman</t>
+  </si>
+  <si>
+    <t>Hridoy Sarker</t>
+  </si>
+  <si>
+    <t>Muntasir Alam</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -108,7 +117,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -131,14 +140,31 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -146,13 +172,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -190,7 +224,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -224,6 +258,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -258,9 +293,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -433,14 +469,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="27.33203125" style="3" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -448,156 +489,164 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>901</v>
       </c>
-      <c r="B2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
+      <c r="B2" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>902</v>
       </c>
-      <c r="B3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
+      <c r="B3" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>903</v>
       </c>
-      <c r="B4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
+      <c r="B4" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>904</v>
       </c>
-      <c r="B5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
+      <c r="B5" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>905</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>906</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>907</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>908</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>909</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>910</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>911</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>912</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>913</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>914</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>915</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>916</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>917</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>918</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
-        <v>1002</v>
-      </c>
-      <c r="B20" t="s">
+        <v>919</v>
+      </c>
+      <c r="B20" s="3" t="s">
         <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" s="2">
+        <v>920</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/Students_information.xlsx
+++ b/Students_information.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tanima\Desktop\Automatic_Attendance_System\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{700CF53D-03F2-416A-9083-A9993C4A9A35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1621D95-057F-4993-B5F2-806DA220D21C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>Name</t>
   </si>
@@ -80,12 +80,6 @@
   </si>
   <si>
     <t>Efaz Rahman</t>
-  </si>
-  <si>
-    <t>Hridoy Sarker</t>
-  </si>
-  <si>
-    <t>Muntasir Alam</t>
   </si>
 </sst>
 </file>
@@ -117,7 +111,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -140,27 +134,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -470,15 +450,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B21"/>
+  <dimension ref="A1:B19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="27.33203125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="27.33203125" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
@@ -493,7 +473,7 @@
       <c r="A2" s="1">
         <v>901</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>3</v>
       </c>
     </row>
@@ -501,7 +481,7 @@
       <c r="A3" s="1">
         <v>902</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>4</v>
       </c>
     </row>
@@ -509,7 +489,7 @@
       <c r="A4" s="1">
         <v>903</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="2" t="s">
         <v>5</v>
       </c>
     </row>
@@ -517,7 +497,7 @@
       <c r="A5" s="1">
         <v>904</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="2" t="s">
         <v>2</v>
       </c>
     </row>
@@ -525,7 +505,7 @@
       <c r="A6" s="1">
         <v>905</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="2" t="s">
         <v>6</v>
       </c>
     </row>
@@ -533,7 +513,7 @@
       <c r="A7" s="1">
         <v>906</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="2" t="s">
         <v>7</v>
       </c>
     </row>
@@ -541,7 +521,7 @@
       <c r="A8" s="1">
         <v>907</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="2" t="s">
         <v>8</v>
       </c>
     </row>
@@ -549,7 +529,7 @@
       <c r="A9" s="1">
         <v>908</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="2" t="s">
         <v>9</v>
       </c>
     </row>
@@ -557,7 +537,7 @@
       <c r="A10" s="1">
         <v>909</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="2" t="s">
         <v>10</v>
       </c>
     </row>
@@ -565,7 +545,7 @@
       <c r="A11" s="1">
         <v>910</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="2" t="s">
         <v>11</v>
       </c>
     </row>
@@ -573,7 +553,7 @@
       <c r="A12" s="1">
         <v>911</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="2" t="s">
         <v>12</v>
       </c>
     </row>
@@ -581,7 +561,7 @@
       <c r="A13" s="1">
         <v>912</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="2" t="s">
         <v>13</v>
       </c>
     </row>
@@ -589,7 +569,7 @@
       <c r="A14" s="1">
         <v>913</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="2" t="s">
         <v>14</v>
       </c>
     </row>
@@ -597,7 +577,7 @@
       <c r="A15" s="1">
         <v>914</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="2" t="s">
         <v>15</v>
       </c>
     </row>
@@ -605,7 +585,7 @@
       <c r="A16" s="1">
         <v>915</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B16" s="2" t="s">
         <v>16</v>
       </c>
     </row>
@@ -613,7 +593,7 @@
       <c r="A17" s="1">
         <v>916</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B17" s="2" t="s">
         <v>17</v>
       </c>
     </row>
@@ -621,7 +601,7 @@
       <c r="A18" s="1">
         <v>917</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="B18" s="2" t="s">
         <v>18</v>
       </c>
     </row>
@@ -629,24 +609,8 @@
       <c r="A19" s="1">
         <v>918</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="B19" s="2" t="s">
         <v>19</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A20" s="1">
-        <v>919</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A21" s="2">
-        <v>920</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>21</v>
       </c>
     </row>
   </sheetData>
